--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3152,28 +3152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3501.05408590608</v>
+        <v>3657.186008120222</v>
       </c>
       <c r="AB2" t="n">
-        <v>4790.296655942314</v>
+        <v>5003.923239969989</v>
       </c>
       <c r="AC2" t="n">
-        <v>4333.117466322582</v>
+        <v>4526.35582899744</v>
       </c>
       <c r="AD2" t="n">
-        <v>3501054.08590608</v>
+        <v>3657186.008120222</v>
       </c>
       <c r="AE2" t="n">
-        <v>4790296.655942314</v>
+        <v>5003923.239969988</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.02112572697959e-07</v>
+        <v>1.186956140304489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.85633680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>4333117.466322582</v>
+        <v>4526355.82899744</v>
       </c>
     </row>
     <row r="3">
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1654.604692026973</v>
+        <v>1748.24979852218</v>
       </c>
       <c r="AB3" t="n">
-        <v>2263.903135638517</v>
+        <v>2392.032501675783</v>
       </c>
       <c r="AC3" t="n">
-        <v>2047.839397781183</v>
+        <v>2163.740276954547</v>
       </c>
       <c r="AD3" t="n">
-        <v>1654604.692026973</v>
+        <v>1748249.79852218</v>
       </c>
       <c r="AE3" t="n">
-        <v>2263903.135638517</v>
+        <v>2392032.501675783</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.109748675410631e-06</v>
+        <v>1.876085197295102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.25737847222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2047839.397781183</v>
+        <v>2163740.276954547</v>
       </c>
     </row>
     <row r="4">
@@ -3364,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1320.475296751358</v>
+        <v>1414.034972883443</v>
       </c>
       <c r="AB4" t="n">
-        <v>1806.732556273852</v>
+        <v>1934.745032719371</v>
       </c>
       <c r="AC4" t="n">
-        <v>1634.300536868143</v>
+        <v>1750.095682228342</v>
       </c>
       <c r="AD4" t="n">
-        <v>1320475.296751358</v>
+        <v>1414034.972883443</v>
       </c>
       <c r="AE4" t="n">
-        <v>1806732.556273852</v>
+        <v>1934745.032719371</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.268004102368482e-06</v>
+        <v>2.143623848600435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.97873263888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1634300.536868143</v>
+        <v>1750095.682228342</v>
       </c>
     </row>
     <row r="5">
@@ -3470,28 +3470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1176.28514755692</v>
+        <v>1259.515680338995</v>
       </c>
       <c r="AB5" t="n">
-        <v>1609.44523292559</v>
+        <v>1723.324919749984</v>
       </c>
       <c r="AC5" t="n">
-        <v>1455.842038765743</v>
+        <v>1558.853208110761</v>
       </c>
       <c r="AD5" t="n">
-        <v>1176285.14755692</v>
+        <v>1259515.680338995</v>
       </c>
       <c r="AE5" t="n">
-        <v>1609445.23292559</v>
+        <v>1723324.919749984</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352593728813209e-06</v>
+        <v>2.286626809121163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.98046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1455842.038765743</v>
+        <v>1558853.208110761</v>
       </c>
     </row>
     <row r="6">
@@ -3576,28 +3576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1094.74036259059</v>
+        <v>1167.556500676635</v>
       </c>
       <c r="AB6" t="n">
-        <v>1497.872060632645</v>
+        <v>1597.502313183263</v>
       </c>
       <c r="AC6" t="n">
-        <v>1354.917253442506</v>
+        <v>1445.03893452163</v>
       </c>
       <c r="AD6" t="n">
-        <v>1094740.36259059</v>
+        <v>1167556.500676635</v>
       </c>
       <c r="AE6" t="n">
-        <v>1497872.060632645</v>
+        <v>1597502.313183263</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40562563589997e-06</v>
+        <v>2.376279879293097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.41623263888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1354917.253442506</v>
+        <v>1445038.93452163</v>
       </c>
     </row>
     <row r="7">
@@ -3682,28 +3682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1033.181222552896</v>
+        <v>1105.997360638941</v>
       </c>
       <c r="AB7" t="n">
-        <v>1413.644129435485</v>
+        <v>1513.274381986103</v>
       </c>
       <c r="AC7" t="n">
-        <v>1278.727917784158</v>
+        <v>1368.849598863283</v>
       </c>
       <c r="AD7" t="n">
-        <v>1033181.222552896</v>
+        <v>1105997.360638941</v>
       </c>
       <c r="AE7" t="n">
-        <v>1413644.129435485</v>
+        <v>1513274.381986103</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.442131755038919e-06</v>
+        <v>2.437995284992439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.04947916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1278727.917784158</v>
+        <v>1368849.598863283</v>
       </c>
     </row>
     <row r="8">
@@ -3788,28 +3788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>971.7718782210105</v>
+        <v>1044.673267653077</v>
       </c>
       <c r="AB8" t="n">
-        <v>1329.621155331532</v>
+        <v>1429.3680525348</v>
       </c>
       <c r="AC8" t="n">
-        <v>1202.723978401702</v>
+        <v>1292.951171731539</v>
       </c>
       <c r="AD8" t="n">
-        <v>971771.8782210106</v>
+        <v>1044673.267653077</v>
       </c>
       <c r="AE8" t="n">
-        <v>1329621.155331532</v>
+        <v>1429368.0525348</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469674734951938e-06</v>
+        <v>2.484558059113427e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.78689236111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1202723.978401702</v>
+        <v>1292951.171731539</v>
       </c>
     </row>
     <row r="9">
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>930.4791168610973</v>
+        <v>1003.380506293163</v>
       </c>
       <c r="AB9" t="n">
-        <v>1273.122577530838</v>
+        <v>1372.869474734105</v>
       </c>
       <c r="AC9" t="n">
-        <v>1151.617545570054</v>
+        <v>1241.844738899891</v>
       </c>
       <c r="AD9" t="n">
-        <v>930479.1168610973</v>
+        <v>1003380.506293163</v>
       </c>
       <c r="AE9" t="n">
-        <v>1273122.577530838</v>
+        <v>1372869.474734105</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.48974843217668e-06</v>
+        <v>2.518493640252451e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.60026041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1151617.545570054</v>
+        <v>1241844.738899891</v>
       </c>
     </row>
     <row r="10">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>926.5231170781176</v>
+        <v>999.4245065101832</v>
       </c>
       <c r="AB10" t="n">
-        <v>1267.709804101372</v>
+        <v>1367.456701304639</v>
       </c>
       <c r="AC10" t="n">
-        <v>1146.721359639821</v>
+        <v>1236.948552969658</v>
       </c>
       <c r="AD10" t="n">
-        <v>926523.1170781176</v>
+        <v>999424.5065101832</v>
       </c>
       <c r="AE10" t="n">
-        <v>1267709.804101372</v>
+        <v>1367456.701304639</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.492082583016766e-06</v>
+        <v>2.522439638059315e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.57855902777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1146721.359639821</v>
+        <v>1236948.552969658</v>
       </c>
     </row>
     <row r="11">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>929.7370087760507</v>
+        <v>1002.638398208117</v>
       </c>
       <c r="AB11" t="n">
-        <v>1272.107192509379</v>
+        <v>1371.854089712646</v>
       </c>
       <c r="AC11" t="n">
-        <v>1150.699067469941</v>
+        <v>1240.926260799778</v>
       </c>
       <c r="AD11" t="n">
-        <v>929737.0087760508</v>
+        <v>1002638.398208117</v>
       </c>
       <c r="AE11" t="n">
-        <v>1272107.192509379</v>
+        <v>1371854.089712646</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.492269315083973e-06</v>
+        <v>2.522755317883864e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.57855902777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1150699.067469941</v>
+        <v>1240926.260799778</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2419.563185578307</v>
+        <v>2540.564748358608</v>
       </c>
       <c r="AB2" t="n">
-        <v>3310.553094102591</v>
+        <v>3476.112770510807</v>
       </c>
       <c r="AC2" t="n">
-        <v>2994.598553191765</v>
+        <v>3144.357446448039</v>
       </c>
       <c r="AD2" t="n">
-        <v>2419563.185578307</v>
+        <v>2540564.748358608</v>
       </c>
       <c r="AE2" t="n">
-        <v>3310553.094102591</v>
+        <v>3476112.770510807</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.635741339799341e-07</v>
+        <v>1.495529919521451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2994598.553191765</v>
+        <v>3144357.446448039</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1312.685059943876</v>
+        <v>1403.414829684046</v>
       </c>
       <c r="AB3" t="n">
-        <v>1796.073610592862</v>
+        <v>1920.214084266306</v>
       </c>
       <c r="AC3" t="n">
-        <v>1624.658866003023</v>
+        <v>1736.951547101323</v>
       </c>
       <c r="AD3" t="n">
-        <v>1312685.059943876</v>
+        <v>1403414.829684046</v>
       </c>
       <c r="AE3" t="n">
-        <v>1796073.610592862</v>
+        <v>1920214.084266306</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243156546074905e-06</v>
+        <v>2.152887327386264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.85980902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1624658.866003023</v>
+        <v>1736951.547101323</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1089.783479742712</v>
+        <v>1160.417544158284</v>
       </c>
       <c r="AB4" t="n">
-        <v>1491.089834837941</v>
+        <v>1587.734477926321</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.782313758734</v>
+        <v>1436.203327752368</v>
       </c>
       <c r="AD4" t="n">
-        <v>1089783.479742712</v>
+        <v>1160417.544158284</v>
       </c>
       <c r="AE4" t="n">
-        <v>1491089.834837941</v>
+        <v>1587734.477926321</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385137753652414e-06</v>
+        <v>2.398769105900584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.13237847222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1348782.313758734</v>
+        <v>1436203.327752368</v>
       </c>
     </row>
     <row r="5">
@@ -4721,28 +4721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>971.6857977080227</v>
+        <v>1042.234521269023</v>
       </c>
       <c r="AB5" t="n">
-        <v>1329.503376176058</v>
+        <v>1426.031252142241</v>
       </c>
       <c r="AC5" t="n">
-        <v>1202.617439923522</v>
+        <v>1289.932830885217</v>
       </c>
       <c r="AD5" t="n">
-        <v>971685.7977080228</v>
+        <v>1042234.521269023</v>
       </c>
       <c r="AE5" t="n">
-        <v>1329503.376176058</v>
+        <v>1426031.252142241</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.532247785665501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.33376736111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1202617.439923522</v>
+        <v>1289932.830885217</v>
       </c>
     </row>
     <row r="6">
@@ -4827,28 +4827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>891.8576692341744</v>
+        <v>972.4115302759122</v>
       </c>
       <c r="AB6" t="n">
-        <v>1220.279009029665</v>
+        <v>1330.496355492506</v>
       </c>
       <c r="AC6" t="n">
-        <v>1103.817293080218</v>
+        <v>1203.515650687663</v>
       </c>
       <c r="AD6" t="n">
-        <v>891857.6692341744</v>
+        <v>972411.5302759123</v>
       </c>
       <c r="AE6" t="n">
-        <v>1220279.009029665</v>
+        <v>1330496.355492506</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.507705204275447e-06</v>
+        <v>2.611030314699681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.90190972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1103817.293080218</v>
+        <v>1203515.650687663</v>
       </c>
     </row>
     <row r="7">
@@ -4933,28 +4933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>845.3518538353991</v>
+        <v>915.9858287424198</v>
       </c>
       <c r="AB7" t="n">
-        <v>1156.647700709286</v>
+        <v>1253.292221328118</v>
       </c>
       <c r="AC7" t="n">
-        <v>1046.258867518834</v>
+        <v>1133.679770731242</v>
       </c>
       <c r="AD7" t="n">
-        <v>845351.853835399</v>
+        <v>915985.8287424198</v>
       </c>
       <c r="AE7" t="n">
-        <v>1156647.700709286</v>
+        <v>1253292.221328118</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.534169728681051e-06</v>
+        <v>2.656861340082622e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.66319444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1046258.867518834</v>
+        <v>1133679.770731242</v>
       </c>
     </row>
     <row r="8">
@@ -5039,28 +5039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>848.50279372057</v>
+        <v>919.136768627591</v>
       </c>
       <c r="AB8" t="n">
-        <v>1160.958955669834</v>
+        <v>1257.603476288666</v>
       </c>
       <c r="AC8" t="n">
-        <v>1050.158662356832</v>
+        <v>1137.579565569239</v>
       </c>
       <c r="AD8" t="n">
-        <v>848502.79372057</v>
+        <v>919136.768627591</v>
       </c>
       <c r="AE8" t="n">
-        <v>1160958.955669834</v>
+        <v>1257603.476288666</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.535715102368969e-06</v>
+        <v>2.65953760433856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.64800347222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1050158.662356832</v>
+        <v>1137579.565569239</v>
       </c>
     </row>
   </sheetData>
@@ -5336,28 +5336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>928.8777512100858</v>
+        <v>1010.830700869952</v>
       </c>
       <c r="AB2" t="n">
-        <v>1270.931518399857</v>
+        <v>1383.063159633456</v>
       </c>
       <c r="AC2" t="n">
-        <v>1149.635598047363</v>
+        <v>1251.065552819374</v>
       </c>
       <c r="AD2" t="n">
-        <v>928877.7512100858</v>
+        <v>1010830.700869952</v>
       </c>
       <c r="AE2" t="n">
-        <v>1270931.518399857</v>
+        <v>1383063.159633456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.386427175079941e-06</v>
+        <v>2.623418560126225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.87065972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1149635.598047363</v>
+        <v>1251065.552819374</v>
       </c>
     </row>
     <row r="3">
@@ -5442,28 +5442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.7553789462255</v>
+        <v>735.4776868892124</v>
       </c>
       <c r="AB3" t="n">
-        <v>919.1253452299587</v>
+        <v>1006.313018187373</v>
       </c>
       <c r="AC3" t="n">
-        <v>831.4053122817348</v>
+        <v>910.2719161007614</v>
       </c>
       <c r="AD3" t="n">
-        <v>671755.3789462255</v>
+        <v>735477.6868892123</v>
       </c>
       <c r="AE3" t="n">
-        <v>919125.3452299588</v>
+        <v>1006313.018187373</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.625581551751458e-06</v>
+        <v>3.075950104351979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>831405.3122817349</v>
+        <v>910271.9161007614</v>
       </c>
     </row>
     <row r="4">
@@ -5548,28 +5548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>676.1136151936546</v>
+        <v>739.8359231366416</v>
       </c>
       <c r="AB4" t="n">
-        <v>925.0884763355045</v>
+        <v>1012.276149292919</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.7993305238743</v>
+        <v>915.6659343429009</v>
       </c>
       <c r="AD4" t="n">
-        <v>676113.6151936546</v>
+        <v>739835.9231366415</v>
       </c>
       <c r="AE4" t="n">
-        <v>925088.4763355046</v>
+        <v>1012276.149292919</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62644375770611e-06</v>
+        <v>3.077581583556038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.37934027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>836799.3305238744</v>
+        <v>915665.9343429009</v>
       </c>
     </row>
   </sheetData>
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1347.223978145312</v>
+        <v>1432.693744664615</v>
       </c>
       <c r="AB2" t="n">
-        <v>1843.331282225597</v>
+        <v>1960.274787437287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1667.406331781689</v>
+        <v>1773.188912987215</v>
       </c>
       <c r="AD2" t="n">
-        <v>1347223.978145312</v>
+        <v>1432693.744664615</v>
       </c>
       <c r="AE2" t="n">
-        <v>1843331.282225597</v>
+        <v>1960274.787437287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.172929699448773e-06</v>
+        <v>2.136823181646144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.07552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1667406.331781689</v>
+        <v>1773188.912987215</v>
       </c>
     </row>
     <row r="3">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>860.3711726165387</v>
+        <v>936.2588779937466</v>
       </c>
       <c r="AB3" t="n">
-        <v>1177.197795271221</v>
+        <v>1281.030701697593</v>
       </c>
       <c r="AC3" t="n">
-        <v>1064.847689898018</v>
+        <v>1158.770929465456</v>
       </c>
       <c r="AD3" t="n">
-        <v>860371.1726165387</v>
+        <v>936258.8779937467</v>
       </c>
       <c r="AE3" t="n">
-        <v>1177197.795271221</v>
+        <v>1281030.701697593</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.492454061139327e-06</v>
+        <v>2.718927176013356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.99348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1064847.689898018</v>
+        <v>1158770.929465456</v>
       </c>
     </row>
     <row r="4">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>738.9313023196378</v>
+        <v>805.3224664264243</v>
       </c>
       <c r="AB4" t="n">
-        <v>1011.038407182041</v>
+        <v>1101.87772688439</v>
       </c>
       <c r="AC4" t="n">
-        <v>914.5463206019029</v>
+        <v>996.716063125646</v>
       </c>
       <c r="AD4" t="n">
-        <v>738931.3023196377</v>
+        <v>805322.4664264243</v>
       </c>
       <c r="AE4" t="n">
-        <v>1011038.407182041</v>
+        <v>1101877.72688439</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.596900069010425e-06</v>
+        <v>2.909205119315707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>914546.3206019029</v>
+        <v>996716.063125646</v>
       </c>
     </row>
     <row r="5">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.9062985524035</v>
+        <v>805.7086630750401</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.6899988726453</v>
+        <v>1102.40613817682</v>
       </c>
       <c r="AC5" t="n">
-        <v>903.3764270504561</v>
+        <v>997.1940435859561</v>
       </c>
       <c r="AD5" t="n">
-        <v>729906.2985524036</v>
+        <v>805708.6630750401</v>
       </c>
       <c r="AE5" t="n">
-        <v>998689.9988726453</v>
+        <v>1102406.13817682</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.600714977491403e-06</v>
+        <v>2.916155054066139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.97786458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>903376.4270504561</v>
+        <v>997194.0435859561</v>
       </c>
     </row>
   </sheetData>
@@ -6460,28 +6460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.3261492115702</v>
+        <v>745.5767567475167</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.0110306382696</v>
+        <v>1020.131011107022</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.824714731779</v>
+        <v>922.7711391698341</v>
       </c>
       <c r="AD2" t="n">
-        <v>675326.1492115702</v>
+        <v>745576.7567475167</v>
       </c>
       <c r="AE2" t="n">
-        <v>924011.0306382696</v>
+        <v>1020131.011107022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572675215037554e-06</v>
+        <v>3.081936704783828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44704861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>835824.7147317789</v>
+        <v>922771.1391698341</v>
       </c>
     </row>
     <row r="3">
@@ -6566,28 +6566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>629.2638184323246</v>
+        <v>699.5996773142916</v>
       </c>
       <c r="AB3" t="n">
-        <v>860.9865175394921</v>
+        <v>957.2231426608944</v>
       </c>
       <c r="AC3" t="n">
-        <v>778.8151727076893</v>
+        <v>865.8671093964565</v>
       </c>
       <c r="AD3" t="n">
-        <v>629263.8184323246</v>
+        <v>699599.6773142916</v>
       </c>
       <c r="AE3" t="n">
-        <v>860986.5175394921</v>
+        <v>957223.1426608944</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.623941069022408e-06</v>
+        <v>3.182401260712013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95876736111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>778815.1727076892</v>
+        <v>865867.1093964565</v>
       </c>
     </row>
   </sheetData>
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2658.787820166001</v>
+        <v>2790.901412335618</v>
       </c>
       <c r="AB2" t="n">
-        <v>3637.870792991519</v>
+        <v>3818.634438238336</v>
       </c>
       <c r="AC2" t="n">
-        <v>3290.677510291996</v>
+        <v>3454.189326939819</v>
       </c>
       <c r="AD2" t="n">
-        <v>2658787.820166002</v>
+        <v>2790901.412335618</v>
       </c>
       <c r="AE2" t="n">
-        <v>3637870.792991519</v>
+        <v>3818634.438238336</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.198266543819183e-07</v>
+        <v>1.410496352098959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.33637152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3290677.510291996</v>
+        <v>3454189.326939819</v>
       </c>
     </row>
     <row r="3">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1400.090666977911</v>
+        <v>1491.501433187464</v>
       </c>
       <c r="AB3" t="n">
-        <v>1915.665818200064</v>
+        <v>2040.738061286361</v>
       </c>
       <c r="AC3" t="n">
-        <v>1732.837361164911</v>
+        <v>1845.972884911047</v>
       </c>
       <c r="AD3" t="n">
-        <v>1400090.666977911</v>
+        <v>1491501.433187464</v>
       </c>
       <c r="AE3" t="n">
-        <v>1915665.818200064</v>
+        <v>2040738.061286361</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.207581210937803e-06</v>
+        <v>2.077620779694158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.20052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1732837.361164911</v>
+        <v>1845972.884911048</v>
       </c>
     </row>
     <row r="4">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1146.188436795282</v>
+        <v>1227.423496514819</v>
       </c>
       <c r="AB4" t="n">
-        <v>1568.265585488349</v>
+        <v>1679.414978034519</v>
       </c>
       <c r="AC4" t="n">
-        <v>1418.592519083914</v>
+        <v>1519.13396960463</v>
       </c>
       <c r="AD4" t="n">
-        <v>1146188.436795282</v>
+        <v>1227423.496514819</v>
       </c>
       <c r="AE4" t="n">
-        <v>1568265.585488349</v>
+        <v>1679414.978034519</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.354030105415834e-06</v>
+        <v>2.329583350471906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.34071180555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1418592.519083914</v>
+        <v>1519133.96960463</v>
       </c>
     </row>
     <row r="5">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1025.183934560614</v>
+        <v>1096.499220845298</v>
       </c>
       <c r="AB5" t="n">
-        <v>1402.701887188998</v>
+        <v>1500.278608092086</v>
       </c>
       <c r="AC5" t="n">
-        <v>1268.829987780143</v>
+        <v>1357.094123390028</v>
       </c>
       <c r="AD5" t="n">
-        <v>1025183.934560614</v>
+        <v>1096499.220845298</v>
       </c>
       <c r="AE5" t="n">
-        <v>1402701.887188998</v>
+        <v>1500278.608092086</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432519055397523e-06</v>
+        <v>2.464622113895274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.50086805555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1268829.987780143</v>
+        <v>1357094.123390028</v>
       </c>
     </row>
     <row r="6">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>950.1034785785503</v>
+        <v>1021.248172662642</v>
       </c>
       <c r="AB6" t="n">
-        <v>1299.973494998393</v>
+        <v>1397.316804126634</v>
       </c>
       <c r="AC6" t="n">
-        <v>1175.905849160005</v>
+        <v>1263.958849487239</v>
       </c>
       <c r="AD6" t="n">
-        <v>950103.4785785503</v>
+        <v>1021248.172662642</v>
       </c>
       <c r="AE6" t="n">
-        <v>1299973.494998393</v>
+        <v>1397316.804126634</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481909662946977e-06</v>
+        <v>2.54959772600071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.01692708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1175905.849160005</v>
+        <v>1263958.849487239</v>
       </c>
     </row>
     <row r="7">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>881.1231484167257</v>
+        <v>952.3530938468382</v>
       </c>
       <c r="AB7" t="n">
-        <v>1205.591564073596</v>
+        <v>1303.051517854486</v>
       </c>
       <c r="AC7" t="n">
-        <v>1090.531597256798</v>
+        <v>1178.690109834744</v>
       </c>
       <c r="AD7" t="n">
-        <v>881123.1484167257</v>
+        <v>952353.0938468382</v>
       </c>
       <c r="AE7" t="n">
-        <v>1205591.564073596</v>
+        <v>1303051.517854486</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.515602480500093e-06</v>
+        <v>2.607565585421473e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.70442708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1090531.597256799</v>
+        <v>1178690.109834744</v>
       </c>
     </row>
     <row r="8">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>862.1972313734818</v>
+        <v>933.4271768035944</v>
       </c>
       <c r="AB8" t="n">
-        <v>1179.696289422498</v>
+        <v>1277.156243203388</v>
       </c>
       <c r="AC8" t="n">
-        <v>1067.107731274155</v>
+        <v>1155.266243852101</v>
       </c>
       <c r="AD8" t="n">
-        <v>862197.2313734818</v>
+        <v>933427.1768035945</v>
       </c>
       <c r="AE8" t="n">
-        <v>1179696.289422498</v>
+        <v>1277156.243203388</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525078585436906e-06</v>
+        <v>2.623869045883562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1067107.731274155</v>
+        <v>1155266.243852101</v>
       </c>
     </row>
     <row r="9">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>866.0140823736549</v>
+        <v>937.2440278037677</v>
       </c>
       <c r="AB9" t="n">
-        <v>1184.918673348517</v>
+        <v>1282.378627129406</v>
       </c>
       <c r="AC9" t="n">
-        <v>1071.831698207936</v>
+        <v>1159.990210785882</v>
       </c>
       <c r="AD9" t="n">
-        <v>866014.0823736549</v>
+        <v>937244.0278037677</v>
       </c>
       <c r="AE9" t="n">
-        <v>1184918.673348517</v>
+        <v>1282378.627129406</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.525078585436906e-06</v>
+        <v>2.623869045883562e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1071831.698207936</v>
+        <v>1159990.210785882</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.3487685046036</v>
+        <v>679.1179801673817</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.1061117552756</v>
+        <v>929.1991810357862</v>
       </c>
       <c r="AC2" t="n">
-        <v>755.4047565281408</v>
+        <v>840.5177153369716</v>
       </c>
       <c r="AD2" t="n">
-        <v>610348.7685046036</v>
+        <v>679117.9801673817</v>
       </c>
       <c r="AE2" t="n">
-        <v>835106.1117552756</v>
+        <v>929199.1810357862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.606583418898069e-06</v>
+        <v>3.220654121577368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.47309027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>755404.7565281407</v>
+        <v>840517.7153369716</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.8608705003222</v>
+        <v>684.6300821631003</v>
       </c>
       <c r="AB3" t="n">
-        <v>842.6480128825954</v>
+        <v>936.7410821631062</v>
       </c>
       <c r="AC3" t="n">
-        <v>762.2268691969938</v>
+        <v>847.3398280058246</v>
       </c>
       <c r="AD3" t="n">
-        <v>615860.8705003222</v>
+        <v>684630.0821631002</v>
       </c>
       <c r="AE3" t="n">
-        <v>842648.0128825954</v>
+        <v>936741.0821631062</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.607499830117405e-06</v>
+        <v>3.222491214837448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.46440972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>762226.8691969938</v>
+        <v>847339.8280058246</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1823.374610330869</v>
+        <v>1931.160787317741</v>
       </c>
       <c r="AB2" t="n">
-        <v>2494.821583465218</v>
+        <v>2642.29938600918</v>
       </c>
       <c r="AC2" t="n">
-        <v>2256.719313043381</v>
+        <v>2390.122041098944</v>
       </c>
       <c r="AD2" t="n">
-        <v>1823374.610330869</v>
+        <v>1931160.787317741</v>
       </c>
       <c r="AE2" t="n">
-        <v>2494821.583465218</v>
+        <v>2642299.38600918</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004786400330057e-06</v>
+        <v>1.779551377546972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2256719.313043381</v>
+        <v>2390122.041098944</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1083.449935935452</v>
+        <v>1171.607519925143</v>
       </c>
       <c r="AB3" t="n">
-        <v>1482.424000784615</v>
+        <v>1603.045096437427</v>
       </c>
       <c r="AC3" t="n">
-        <v>1340.943534744883</v>
+        <v>1450.052722321362</v>
       </c>
       <c r="AD3" t="n">
-        <v>1083449.935935452</v>
+        <v>1171607.519925143</v>
       </c>
       <c r="AE3" t="n">
-        <v>1482424.000784615</v>
+        <v>1603045.096437427</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.357362236357529e-06</v>
+        <v>2.403989381968971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90928819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1340943.534744883</v>
+        <v>1450052.722321362</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>907.3501011314148</v>
+        <v>985.7787742313628</v>
       </c>
       <c r="AB4" t="n">
-        <v>1241.476437829327</v>
+        <v>1348.786008393536</v>
       </c>
       <c r="AC4" t="n">
-        <v>1122.991669026019</v>
+        <v>1220.059764785508</v>
       </c>
       <c r="AD4" t="n">
-        <v>907350.1011314148</v>
+        <v>985778.7742313629</v>
       </c>
       <c r="AE4" t="n">
-        <v>1241476.437829327</v>
+        <v>1348786.008393536</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.487227171727513e-06</v>
+        <v>2.633989832369961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.52039930555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1122991.669026019</v>
+        <v>1220059.764785508</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>805.1808144089678</v>
+        <v>883.5241466543439</v>
       </c>
       <c r="AB5" t="n">
-        <v>1101.68391234486</v>
+        <v>1208.876715786872</v>
       </c>
       <c r="AC5" t="n">
-        <v>996.540745973748</v>
+        <v>1093.503218701299</v>
       </c>
       <c r="AD5" t="n">
-        <v>805180.8144089677</v>
+        <v>883524.1466543439</v>
       </c>
       <c r="AE5" t="n">
-        <v>1101683.91234486</v>
+        <v>1208876.715786872</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555294310266263e-06</v>
+        <v>2.754541792580135e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.88454861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>996540.745973748</v>
+        <v>1093503.218701299</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>788.4811560322256</v>
+        <v>857.1809182424302</v>
       </c>
       <c r="AB6" t="n">
-        <v>1078.83470301687</v>
+        <v>1172.832748492476</v>
       </c>
       <c r="AC6" t="n">
-        <v>975.872233114955</v>
+        <v>1060.899237057455</v>
       </c>
       <c r="AD6" t="n">
-        <v>788481.1560322256</v>
+        <v>857180.9182424302</v>
       </c>
       <c r="AE6" t="n">
-        <v>1078834.70301687</v>
+        <v>1172832.748492476</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.567434940239549e-06</v>
+        <v>2.7760437503954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.77821180555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>975872.2331149549</v>
+        <v>1060899.237057455</v>
       </c>
     </row>
   </sheetData>
@@ -9026,28 +9026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2205.510583328644</v>
+        <v>2325.36629145396</v>
       </c>
       <c r="AB2" t="n">
-        <v>3017.676880370253</v>
+        <v>3181.668747887978</v>
       </c>
       <c r="AC2" t="n">
-        <v>2729.674034243704</v>
+        <v>2878.014748089562</v>
       </c>
       <c r="AD2" t="n">
-        <v>2205510.583328644</v>
+        <v>2325366.29145396</v>
       </c>
       <c r="AE2" t="n">
-        <v>3017676.880370253</v>
+        <v>3181668.747887977</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.083404377308065e-07</v>
+        <v>1.584066407838218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.29427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2729674.034243704</v>
+        <v>2878014.748089562</v>
       </c>
     </row>
     <row r="3">
@@ -9132,28 +9132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1238.791343086368</v>
+        <v>1328.725727476227</v>
       </c>
       <c r="AB3" t="n">
-        <v>1694.968967227708</v>
+        <v>1818.021159574932</v>
       </c>
       <c r="AC3" t="n">
-        <v>1533.203507899381</v>
+        <v>1644.511771713823</v>
       </c>
       <c r="AD3" t="n">
-        <v>1238791.343086367</v>
+        <v>1328725.727476227</v>
       </c>
       <c r="AE3" t="n">
-        <v>1694968.967227708</v>
+        <v>1818021.159574931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.279047859827471e-06</v>
+        <v>2.230547782097654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.54296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1533203.507899381</v>
+        <v>1644511.771713823</v>
       </c>
     </row>
     <row r="4">
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1021.614005741612</v>
+        <v>1101.546198437645</v>
       </c>
       <c r="AB4" t="n">
-        <v>1397.817353084696</v>
+        <v>1507.184105490872</v>
       </c>
       <c r="AC4" t="n">
-        <v>1264.411626755268</v>
+        <v>1363.340569809001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1021614.005741612</v>
+        <v>1101546.198437645</v>
       </c>
       <c r="AE4" t="n">
-        <v>1397817.353084696</v>
+        <v>1507184.105490872</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418185022197787e-06</v>
+        <v>2.473190843925169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.91970486111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1264411.626755268</v>
+        <v>1363340.569809001</v>
       </c>
     </row>
     <row r="5">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>921.9999135543909</v>
+        <v>991.9300040651497</v>
       </c>
       <c r="AB5" t="n">
-        <v>1261.520957490553</v>
+        <v>1357.202392425231</v>
       </c>
       <c r="AC5" t="n">
-        <v>1141.123167863438</v>
+        <v>1227.672900937688</v>
       </c>
       <c r="AD5" t="n">
-        <v>921999.9135543909</v>
+        <v>991930.0040651497</v>
       </c>
       <c r="AE5" t="n">
-        <v>1261520.957490553</v>
+        <v>1357202.392425231</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490629949766914e-06</v>
+        <v>2.599528471772292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.19487847222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1141123.167863438</v>
+        <v>1227672.900937688</v>
       </c>
     </row>
     <row r="6">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>840.6359893976643</v>
+        <v>910.6513312544439</v>
       </c>
       <c r="AB6" t="n">
-        <v>1150.195246936321</v>
+        <v>1245.993326523649</v>
       </c>
       <c r="AC6" t="n">
-        <v>1040.422226877886</v>
+        <v>1127.077472202848</v>
       </c>
       <c r="AD6" t="n">
-        <v>840635.9893976643</v>
+        <v>910651.3312544439</v>
       </c>
       <c r="AE6" t="n">
-        <v>1150195.246936321</v>
+        <v>1245993.326523649</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.536748995177677e-06</v>
+        <v>2.679956059890313e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.76953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1040422.226877886</v>
+        <v>1127077.472202848</v>
       </c>
     </row>
     <row r="7">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>826.6951756262945</v>
+        <v>896.7105174830739</v>
       </c>
       <c r="AB7" t="n">
-        <v>1131.120810509036</v>
+        <v>1226.918890096364</v>
       </c>
       <c r="AC7" t="n">
-        <v>1023.168227892081</v>
+        <v>1109.823473217043</v>
       </c>
       <c r="AD7" t="n">
-        <v>826695.1756262945</v>
+        <v>896710.5174830739</v>
       </c>
       <c r="AE7" t="n">
-        <v>1131120.810509036</v>
+        <v>1226918.890096364</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.545231779428706e-06</v>
+        <v>2.694749294914134e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.69357638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1023168.227892081</v>
+        <v>1109823.473217043</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3193.160617031977</v>
+        <v>3337.884571565869</v>
       </c>
       <c r="AB2" t="n">
-        <v>4369.023228527557</v>
+        <v>4567.040927891097</v>
       </c>
       <c r="AC2" t="n">
-        <v>3952.049783559336</v>
+        <v>4131.168951615199</v>
       </c>
       <c r="AD2" t="n">
-        <v>3193160.617031978</v>
+        <v>3337884.571565869</v>
       </c>
       <c r="AE2" t="n">
-        <v>4369023.228527557</v>
+        <v>4567040.927891097</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.398176159030381e-07</v>
+        <v>1.257640914602637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.60633680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3952049.783559335</v>
+        <v>4131168.951615199</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1559.965105281967</v>
+        <v>1663.168676811317</v>
       </c>
       <c r="AB3" t="n">
-        <v>2134.413077850103</v>
+        <v>2275.6207574368</v>
       </c>
       <c r="AC3" t="n">
-        <v>1930.707689367658</v>
+        <v>2058.438706200824</v>
       </c>
       <c r="AD3" t="n">
-        <v>1559965.105281967</v>
+        <v>1663168.676811317</v>
       </c>
       <c r="AE3" t="n">
-        <v>2134413.077850103</v>
+        <v>2275620.7574368</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.141301135740509e-06</v>
+        <v>1.940136289452509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.89496527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1930707.689367658</v>
+        <v>2058438.706200824</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1259.400499767824</v>
+        <v>1342.099902358618</v>
       </c>
       <c r="AB4" t="n">
-        <v>1723.1673246111</v>
+        <v>1836.320295675974</v>
       </c>
       <c r="AC4" t="n">
-        <v>1558.710653630746</v>
+        <v>1661.06446394838</v>
       </c>
       <c r="AD4" t="n">
-        <v>1259400.499767824</v>
+        <v>1342099.902358619</v>
       </c>
       <c r="AE4" t="n">
-        <v>1723167.3246111</v>
+        <v>1836320.295675974</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297057166057203e-06</v>
+        <v>2.204911218045229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.74652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1558710.653630746</v>
+        <v>1661064.46394838</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1126.032938953866</v>
+        <v>1208.647000690089</v>
       </c>
       <c r="AB5" t="n">
-        <v>1540.687944143915</v>
+        <v>1653.724148086592</v>
       </c>
       <c r="AC5" t="n">
-        <v>1393.64684912393</v>
+        <v>1495.895036409626</v>
       </c>
       <c r="AD5" t="n">
-        <v>1126032.938953866</v>
+        <v>1208647.000690089</v>
       </c>
       <c r="AE5" t="n">
-        <v>1540687.944143915</v>
+        <v>1653724.148086592</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378087946783894e-06</v>
+        <v>2.342658174853888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.81987847222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1393646.84912393</v>
+        <v>1495895.036409626</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1047.743740147769</v>
+        <v>1120.020466068694</v>
       </c>
       <c r="AB6" t="n">
-        <v>1433.569208461724</v>
+        <v>1532.46141349084</v>
       </c>
       <c r="AC6" t="n">
-        <v>1296.751375233157</v>
+        <v>1386.205447010375</v>
       </c>
       <c r="AD6" t="n">
-        <v>1047743.740147769</v>
+        <v>1120020.466068694</v>
       </c>
       <c r="AE6" t="n">
-        <v>1433569.208461724</v>
+        <v>1532461.41349084</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42984976954775e-06</v>
+        <v>2.430649842966272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.28385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1296751.375233158</v>
+        <v>1386205.447010375</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>975.1036965272291</v>
+        <v>1057.632417408881</v>
       </c>
       <c r="AB7" t="n">
-        <v>1334.17989612755</v>
+        <v>1447.099332948029</v>
       </c>
       <c r="AC7" t="n">
-        <v>1206.847639374381</v>
+        <v>1308.990203628138</v>
       </c>
       <c r="AD7" t="n">
-        <v>975103.696527229</v>
+        <v>1057632.417408881</v>
       </c>
       <c r="AE7" t="n">
-        <v>1334179.89612755</v>
+        <v>1447099.332948029</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466741832317625e-06</v>
+        <v>2.493363904602734e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.92578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1206847.639374381</v>
+        <v>1308990.203628137</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>926.6108656889678</v>
+        <v>998.9728429559134</v>
       </c>
       <c r="AB8" t="n">
-        <v>1267.829865621932</v>
+        <v>1366.838715303697</v>
       </c>
       <c r="AC8" t="n">
-        <v>1146.829962657366</v>
+        <v>1236.389546685297</v>
       </c>
       <c r="AD8" t="n">
-        <v>926610.8656889678</v>
+        <v>998972.8429559134</v>
       </c>
       <c r="AE8" t="n">
-        <v>1267829.865621932</v>
+        <v>1366838.715303697</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492622743699553e-06</v>
+        <v>2.537359738658927e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.68272569444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1146829.962657366</v>
+        <v>1236389.546685297</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>903.8718399692575</v>
+        <v>976.233817236203</v>
       </c>
       <c r="AB9" t="n">
-        <v>1236.717327457211</v>
+        <v>1335.726177138975</v>
       </c>
       <c r="AC9" t="n">
-        <v>1118.686761468364</v>
+        <v>1208.246345496294</v>
       </c>
       <c r="AD9" t="n">
-        <v>903871.8399692575</v>
+        <v>976233.817236203</v>
       </c>
       <c r="AE9" t="n">
-        <v>1236717.327457211</v>
+        <v>1335726.177138975</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.502692771037249e-06</v>
+        <v>2.554478117728063e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.59157986111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1118686.761468364</v>
+        <v>1208246.345496295</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>905.9508746820056</v>
+        <v>978.3128519489511</v>
       </c>
       <c r="AB10" t="n">
-        <v>1239.561954471731</v>
+        <v>1338.570804153495</v>
       </c>
       <c r="AC10" t="n">
-        <v>1121.259901273078</v>
+        <v>1210.819485301008</v>
       </c>
       <c r="AD10" t="n">
-        <v>905950.8746820056</v>
+        <v>978312.8519489511</v>
       </c>
       <c r="AE10" t="n">
-        <v>1239561.954471731</v>
+        <v>1338570.804153495</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502692771037249e-06</v>
+        <v>2.554478117728063e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.59157986111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1121259.901273078</v>
+        <v>1210819.485301008</v>
       </c>
     </row>
   </sheetData>
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1489.673191877727</v>
+        <v>1595.192120141278</v>
       </c>
       <c r="AB2" t="n">
-        <v>2038.236580870065</v>
+        <v>2182.612233686825</v>
       </c>
       <c r="AC2" t="n">
-        <v>1843.710142274833</v>
+        <v>1974.306785419263</v>
       </c>
       <c r="AD2" t="n">
-        <v>1489673.191877727</v>
+        <v>1595192.120141278</v>
       </c>
       <c r="AE2" t="n">
-        <v>2038236.580870065</v>
+        <v>2182612.233686825</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.113247682571636e-06</v>
+        <v>2.007449010544215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84809027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1843710.142274833</v>
+        <v>1974306.785419263</v>
       </c>
     </row>
     <row r="3">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>941.8993157897223</v>
+        <v>1018.593894478362</v>
       </c>
       <c r="AB3" t="n">
-        <v>1288.748197528601</v>
+        <v>1393.685103616412</v>
       </c>
       <c r="AC3" t="n">
-        <v>1165.751878325926</v>
+        <v>1260.673753376589</v>
       </c>
       <c r="AD3" t="n">
-        <v>941899.3157897224</v>
+        <v>1018593.894478362</v>
       </c>
       <c r="AE3" t="n">
-        <v>1288748.197528601</v>
+        <v>1393685.103616412</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.444045352287681e-06</v>
+        <v>2.603955488983775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.30164930555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1165751.878325926</v>
+        <v>1260673.753376589</v>
       </c>
     </row>
     <row r="4">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>791.3276194878014</v>
+        <v>858.4993926698588</v>
       </c>
       <c r="AB4" t="n">
-        <v>1082.729359893894</v>
+        <v>1174.636743371071</v>
       </c>
       <c r="AC4" t="n">
-        <v>979.3951894058207</v>
+        <v>1062.531061196758</v>
       </c>
       <c r="AD4" t="n">
-        <v>791327.6194878013</v>
+        <v>858499.3926698589</v>
       </c>
       <c r="AE4" t="n">
-        <v>1082729.359893894</v>
+        <v>1174636.743371071</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563169166866867e-06</v>
+        <v>2.818763916122675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.13411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>979395.1894058207</v>
+        <v>1062531.061196758</v>
       </c>
     </row>
     <row r="5">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>748.5003226431883</v>
+        <v>825.194811823277</v>
       </c>
       <c r="AB5" t="n">
-        <v>1024.131162944105</v>
+        <v>1129.067946562368</v>
       </c>
       <c r="AC5" t="n">
-        <v>926.3895221298339</v>
+        <v>1021.31128639927</v>
       </c>
       <c r="AD5" t="n">
-        <v>748500.3226431883</v>
+        <v>825194.8118232769</v>
       </c>
       <c r="AE5" t="n">
-        <v>1024131.162944105</v>
+        <v>1129067.946562368</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589335679983833e-06</v>
+        <v>2.865948331314724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.90190972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>926389.5221298339</v>
+        <v>1021311.28639927</v>
       </c>
     </row>
   </sheetData>
@@ -11613,28 +11613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1064.214628810426</v>
+        <v>1147.480113305712</v>
       </c>
       <c r="AB2" t="n">
-        <v>1456.105404974295</v>
+        <v>1570.032914274665</v>
       </c>
       <c r="AC2" t="n">
-        <v>1317.136748780319</v>
+        <v>1420.191176491325</v>
       </c>
       <c r="AD2" t="n">
-        <v>1064214.628810426</v>
+        <v>1147480.113305712</v>
       </c>
       <c r="AE2" t="n">
-        <v>1456105.404974295</v>
+        <v>1570032.914274665</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.307797685872681e-06</v>
+        <v>2.439932453805504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.59982638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1317136.748780319</v>
+        <v>1420191.176491325</v>
       </c>
     </row>
     <row r="3">
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.0947589363124</v>
+        <v>780.7715510866257</v>
       </c>
       <c r="AB3" t="n">
-        <v>979.7924410477854</v>
+        <v>1068.286081406535</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.2824256215118</v>
+        <v>966.3303571460265</v>
       </c>
       <c r="AD3" t="n">
-        <v>716094.7589363124</v>
+        <v>780771.5510866257</v>
       </c>
       <c r="AE3" t="n">
-        <v>979792.4410477853</v>
+        <v>1068286.081406535</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.597547363741804e-06</v>
+        <v>2.980512736328952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>886282.4256215119</v>
+        <v>966330.3571460265</v>
       </c>
     </row>
     <row r="4">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>696.6318771396785</v>
+        <v>761.3086692899918</v>
       </c>
       <c r="AB4" t="n">
-        <v>953.1624675318859</v>
+        <v>1041.656107890635</v>
       </c>
       <c r="AC4" t="n">
-        <v>862.193979402567</v>
+        <v>942.241910927082</v>
       </c>
       <c r="AD4" t="n">
-        <v>696631.8771396786</v>
+        <v>761308.6692899918</v>
       </c>
       <c r="AE4" t="n">
-        <v>953162.467531886</v>
+        <v>1041656.107890635</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618758906777611e-06</v>
+        <v>3.020086695518077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>862193.979402567</v>
+        <v>942241.9109270821</v>
       </c>
     </row>
   </sheetData>
@@ -21087,28 +21087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>805.5517247162236</v>
+        <v>877.2010545421447</v>
       </c>
       <c r="AB2" t="n">
-        <v>1102.191408190655</v>
+        <v>1200.225182203824</v>
       </c>
       <c r="AC2" t="n">
-        <v>996.9998071282956</v>
+        <v>1085.677375340914</v>
       </c>
       <c r="AD2" t="n">
-        <v>805551.7247162235</v>
+        <v>877201.0545421446</v>
       </c>
       <c r="AE2" t="n">
-        <v>1102191.408190656</v>
+        <v>1200225.182203824</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474307482263648e-06</v>
+        <v>2.835147961033379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.15017361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>996999.8071282957</v>
+        <v>1085677.375340914</v>
       </c>
     </row>
     <row r="3">
@@ -21193,28 +21193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>650.3705006939907</v>
+        <v>722.0197410113607</v>
       </c>
       <c r="AB3" t="n">
-        <v>889.865611371007</v>
+        <v>987.8992629146273</v>
       </c>
       <c r="AC3" t="n">
-        <v>804.938086355987</v>
+        <v>893.6155437873783</v>
       </c>
       <c r="AD3" t="n">
-        <v>650370.5006939907</v>
+        <v>722019.7410113607</v>
       </c>
       <c r="AE3" t="n">
-        <v>889865.611371007</v>
+        <v>987899.2629146273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.628562305902782e-06</v>
+        <v>3.131785707216808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62022569444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>804938.086355987</v>
+        <v>893615.5437873784</v>
       </c>
     </row>
   </sheetData>
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>593.911301980844</v>
+        <v>661.0425846356446</v>
       </c>
       <c r="AB2" t="n">
-        <v>812.6156448876247</v>
+        <v>904.4676274390927</v>
       </c>
       <c r="AC2" t="n">
-        <v>735.0607482527699</v>
+        <v>818.1465065045928</v>
       </c>
       <c r="AD2" t="n">
-        <v>593911.301980844</v>
+        <v>661042.5846356447</v>
       </c>
       <c r="AE2" t="n">
-        <v>812615.6448876248</v>
+        <v>904467.6274390926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.562716708018479e-06</v>
+        <v>3.223258421441133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.35199652777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>735060.7482527699</v>
+        <v>818146.5065045928</v>
       </c>
     </row>
   </sheetData>
@@ -21787,28 +21787,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2008.197290005661</v>
+        <v>2117.124524331702</v>
       </c>
       <c r="AB2" t="n">
-        <v>2747.70412759743</v>
+        <v>2896.74317513274</v>
       </c>
       <c r="AC2" t="n">
-        <v>2485.467102086495</v>
+        <v>2620.282072102652</v>
       </c>
       <c r="AD2" t="n">
-        <v>2008197.290005661</v>
+        <v>2117124.524331702</v>
       </c>
       <c r="AE2" t="n">
-        <v>2747704.12759743</v>
+        <v>2896743.17513274</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.550263608759632e-07</v>
+        <v>1.67794364239337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.37630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2485467.102086495</v>
+        <v>2620282.072102652</v>
       </c>
     </row>
     <row r="3">
@@ -21893,28 +21893,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1164.551166525742</v>
+        <v>1243.747722941221</v>
       </c>
       <c r="AB3" t="n">
-        <v>1593.390282412026</v>
+        <v>1701.750504805165</v>
       </c>
       <c r="AC3" t="n">
-        <v>1441.319350195929</v>
+        <v>1539.337825048394</v>
       </c>
       <c r="AD3" t="n">
-        <v>1164551.166525743</v>
+        <v>1243747.722941221</v>
       </c>
       <c r="AE3" t="n">
-        <v>1593390.282412026</v>
+        <v>1701750.504805165</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.318011220247875e-06</v>
+        <v>2.315693721364494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1441319.350195929</v>
+        <v>1539337.825048394</v>
       </c>
     </row>
     <row r="4">
@@ -21999,28 +21999,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>965.4528887629605</v>
+        <v>1044.649355669888</v>
       </c>
       <c r="AB4" t="n">
-        <v>1320.975235180888</v>
+        <v>1429.335335104479</v>
       </c>
       <c r="AC4" t="n">
-        <v>1194.90321273561</v>
+        <v>1292.921576806849</v>
       </c>
       <c r="AD4" t="n">
-        <v>965452.8887629604</v>
+        <v>1044649.355669888</v>
       </c>
       <c r="AE4" t="n">
-        <v>1320975.235180888</v>
+        <v>1429335.335104479</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451644007596677e-06</v>
+        <v>2.550481257220114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1194903.21273561</v>
+        <v>1292921.576806849</v>
       </c>
     </row>
     <row r="5">
@@ -22105,28 +22105,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>869.3192951538344</v>
+        <v>938.6056255991253</v>
       </c>
       <c r="AB5" t="n">
-        <v>1189.441011290054</v>
+        <v>1284.24162530247</v>
       </c>
       <c r="AC5" t="n">
-        <v>1075.922430563475</v>
+        <v>1161.675407028043</v>
       </c>
       <c r="AD5" t="n">
-        <v>869319.2951538344</v>
+        <v>938605.6255991254</v>
       </c>
       <c r="AE5" t="n">
-        <v>1189441.011290054</v>
+        <v>1284241.62530247</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522350228168851e-06</v>
+        <v>2.674709297562292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.03862847222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1075922.430563475</v>
+        <v>1161675.407028043</v>
       </c>
     </row>
     <row r="6">
@@ -22211,28 +22211,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>806.9810091164615</v>
+        <v>876.3525909077731</v>
       </c>
       <c r="AB6" t="n">
-        <v>1104.147018162638</v>
+        <v>1199.064276827703</v>
       </c>
       <c r="AC6" t="n">
-        <v>998.7687764292684</v>
+        <v>1084.627265144549</v>
       </c>
       <c r="AD6" t="n">
-        <v>806981.0091164615</v>
+        <v>876352.5909077731</v>
       </c>
       <c r="AE6" t="n">
-        <v>1104147.018162638</v>
+        <v>1199064.276827703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.555044469436207e-06</v>
+        <v>2.732151789753939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.74348958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>998768.7764292684</v>
+        <v>1084627.265144549</v>
       </c>
     </row>
     <row r="7">
@@ -22317,28 +22317,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>809.1887948029341</v>
+        <v>878.5603765942459</v>
       </c>
       <c r="AB7" t="n">
-        <v>1107.167807939501</v>
+        <v>1202.085066604566</v>
       </c>
       <c r="AC7" t="n">
-        <v>1001.501266269532</v>
+        <v>1087.359754984812</v>
       </c>
       <c r="AD7" t="n">
-        <v>809188.7948029342</v>
+        <v>878560.3765942459</v>
       </c>
       <c r="AE7" t="n">
-        <v>1107167.807939501</v>
+        <v>1202085.066604566</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.556718572151704e-06</v>
+        <v>2.735093122185439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.72829861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1001501.266269532</v>
+        <v>1087359.754984812</v>
       </c>
     </row>
   </sheetData>
@@ -22614,28 +22614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2910.760249189311</v>
+        <v>3054.115010947965</v>
       </c>
       <c r="AB2" t="n">
-        <v>3982.630586620255</v>
+        <v>4178.774896024193</v>
       </c>
       <c r="AC2" t="n">
-        <v>3602.533913090202</v>
+        <v>3779.958484894889</v>
       </c>
       <c r="AD2" t="n">
-        <v>2910760.249189311</v>
+        <v>3054115.010947966</v>
       </c>
       <c r="AE2" t="n">
-        <v>3982630.586620255</v>
+        <v>4178774.896024194</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.794692933114512e-07</v>
+        <v>1.332805625637299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.42144097222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3602533.913090202</v>
+        <v>3779958.484894889</v>
       </c>
     </row>
     <row r="3">
@@ -22720,28 +22720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1478.425991412173</v>
+        <v>1570.747152363913</v>
       </c>
       <c r="AB3" t="n">
-        <v>2022.847665001629</v>
+        <v>2149.165550337968</v>
       </c>
       <c r="AC3" t="n">
-        <v>1829.789922938402</v>
+        <v>1944.052206586507</v>
       </c>
       <c r="AD3" t="n">
-        <v>1478425.991412173</v>
+        <v>1570747.152363913</v>
       </c>
       <c r="AE3" t="n">
-        <v>2022847.665001629</v>
+        <v>2149165.550337968</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.174043595915422e-06</v>
+        <v>2.007483710784595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.54123263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1829789.922938402</v>
+        <v>1944052.206586507</v>
       </c>
     </row>
     <row r="4">
@@ -22826,28 +22826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1202.786654218763</v>
+        <v>1284.849908398088</v>
       </c>
       <c r="AB4" t="n">
-        <v>1645.705763504283</v>
+        <v>1757.988328247696</v>
       </c>
       <c r="AC4" t="n">
-        <v>1488.64191519798</v>
+        <v>1590.20838955185</v>
       </c>
       <c r="AD4" t="n">
-        <v>1202786.654218763</v>
+        <v>1284849.908398088</v>
       </c>
       <c r="AE4" t="n">
-        <v>1645705.763504283</v>
+        <v>1757988.328247696</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.32502188245773e-06</v>
+        <v>2.265639755390018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.54253472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1488641.91519798</v>
+        <v>1590208.38955185</v>
       </c>
     </row>
     <row r="5">
@@ -22932,28 +22932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1075.848963587468</v>
+        <v>1157.826876912221</v>
       </c>
       <c r="AB5" t="n">
-        <v>1472.02401508687</v>
+        <v>1584.189812708085</v>
       </c>
       <c r="AC5" t="n">
-        <v>1331.536109085659</v>
+        <v>1432.996960407591</v>
       </c>
       <c r="AD5" t="n">
-        <v>1075848.963587468</v>
+        <v>1157826.876912221</v>
       </c>
       <c r="AE5" t="n">
-        <v>1472024.01508687</v>
+        <v>1584189.812708085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404544072352421e-06</v>
+        <v>2.401613837966601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1331536.109085659</v>
+        <v>1432996.960407591</v>
       </c>
     </row>
     <row r="6">
@@ -23038,28 +23038,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>998.6440430261465</v>
+        <v>1070.364139087035</v>
       </c>
       <c r="AB6" t="n">
-        <v>1366.388836734161</v>
+        <v>1464.519436231998</v>
       </c>
       <c r="AC6" t="n">
-        <v>1235.982603895029</v>
+        <v>1324.747756703953</v>
       </c>
       <c r="AD6" t="n">
-        <v>998644.0430261465</v>
+        <v>1070364.139087035</v>
       </c>
       <c r="AE6" t="n">
-        <v>1366388.836734161</v>
+        <v>1464519.436231998</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455218116986986e-06</v>
+        <v>2.488260807054782e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.15147569444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1235982.603895029</v>
+        <v>1324747.756703953</v>
       </c>
     </row>
     <row r="7">
@@ -23144,28 +23144,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>929.4419338904844</v>
+        <v>1001.247281297393</v>
       </c>
       <c r="AB7" t="n">
-        <v>1271.703458033161</v>
+        <v>1369.950702183648</v>
       </c>
       <c r="AC7" t="n">
-        <v>1150.333864845489</v>
+        <v>1239.204529905126</v>
       </c>
       <c r="AD7" t="n">
-        <v>929441.9338904844</v>
+        <v>1001247.281297393</v>
       </c>
       <c r="AE7" t="n">
-        <v>1271703.458033161</v>
+        <v>1369950.702183648</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.490519136844773e-06</v>
+        <v>2.54862161698138e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.81727430555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1150333.864845489</v>
+        <v>1239204.529905126</v>
       </c>
     </row>
     <row r="8">
@@ -23250,28 +23250,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>887.3332716019971</v>
+        <v>959.1386190089059</v>
       </c>
       <c r="AB8" t="n">
-        <v>1214.088528586983</v>
+        <v>1312.335772737469</v>
       </c>
       <c r="AC8" t="n">
-        <v>1098.217623402593</v>
+        <v>1187.08828846223</v>
       </c>
       <c r="AD8" t="n">
-        <v>887333.2716019971</v>
+        <v>959138.619008906</v>
       </c>
       <c r="AE8" t="n">
-        <v>1214088.528586983</v>
+        <v>1312335.772737469</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.511111398428482e-06</v>
+        <v>2.583832089438562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.62847222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1098217.623402593</v>
+        <v>1187088.28846223</v>
       </c>
     </row>
     <row r="9">
@@ -23356,28 +23356,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>887.226793352549</v>
+        <v>959.0321407594579</v>
       </c>
       <c r="AB9" t="n">
-        <v>1213.942840348599</v>
+        <v>1312.190084499086</v>
       </c>
       <c r="AC9" t="n">
-        <v>1098.085839445206</v>
+        <v>1186.956504504843</v>
       </c>
       <c r="AD9" t="n">
-        <v>887226.793352549</v>
+        <v>959032.1407594578</v>
       </c>
       <c r="AE9" t="n">
-        <v>1213942.840348599</v>
+        <v>1312190.084499086</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.512060350575196e-06</v>
+        <v>2.585454691855944e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1098085.839445206</v>
+        <v>1186956.504504842</v>
       </c>
     </row>
   </sheetData>
@@ -23653,28 +23653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.4883574480796</v>
+        <v>658.6444623027844</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.0910005838095</v>
+        <v>901.1864106655828</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.6359998263707</v>
+        <v>815.1784444547301</v>
       </c>
       <c r="AD2" t="n">
-        <v>585488.3574480796</v>
+        <v>658644.4623027844</v>
       </c>
       <c r="AE2" t="n">
-        <v>801091.0005838096</v>
+        <v>901186.4106655827</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448585325738654e-06</v>
+        <v>3.104985557641522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.26822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>724635.9998263707</v>
+        <v>815178.4444547301</v>
       </c>
     </row>
   </sheetData>
@@ -23950,28 +23950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.904131002144</v>
+        <v>1286.223075431838</v>
       </c>
       <c r="AB2" t="n">
-        <v>1644.498256305128</v>
+        <v>1759.867155963127</v>
       </c>
       <c r="AC2" t="n">
-        <v>1487.549650791166</v>
+        <v>1591.907904587072</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201904.131002144</v>
+        <v>1286223.075431838</v>
       </c>
       <c r="AE2" t="n">
-        <v>1644498.256305128</v>
+        <v>1759867.155963127</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.237838192487657e-06</v>
+        <v>2.280633359033621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.32248263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1487549.650791165</v>
+        <v>1591907.904587072</v>
       </c>
     </row>
     <row r="3">
@@ -24056,28 +24056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.3239200300258</v>
+        <v>863.2645309760893</v>
       </c>
       <c r="AB3" t="n">
-        <v>1078.619565781897</v>
+        <v>1181.15661582472</v>
       </c>
       <c r="AC3" t="n">
-        <v>975.677628275741</v>
+        <v>1068.42868617413</v>
       </c>
       <c r="AD3" t="n">
-        <v>788323.9200300258</v>
+        <v>863264.5309760893</v>
       </c>
       <c r="AE3" t="n">
-        <v>1078619.565781897</v>
+        <v>1181156.61582472</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543848850002337e-06</v>
+        <v>2.844437350527242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.69184027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>975677.628275741</v>
+        <v>1068428.686174131</v>
       </c>
     </row>
     <row r="4">
@@ -24162,28 +24162,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>715.7201643333591</v>
+        <v>781.2826208128943</v>
       </c>
       <c r="AB4" t="n">
-        <v>979.2799041860769</v>
+        <v>1068.985349552821</v>
       </c>
       <c r="AC4" t="n">
-        <v>885.818804558535</v>
+        <v>966.96288812186</v>
       </c>
       <c r="AD4" t="n">
-        <v>715720.1643333591</v>
+        <v>781282.6208128943</v>
       </c>
       <c r="AE4" t="n">
-        <v>979279.904186077</v>
+        <v>1068985.349552821</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.610213866232467e-06</v>
+        <v>2.966710415622341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.08637152777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>885818.804558535</v>
+        <v>966962.88812186</v>
       </c>
     </row>
   </sheetData>
@@ -24459,28 +24459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1650.406087861963</v>
+        <v>1757.172153657318</v>
       </c>
       <c r="AB2" t="n">
-        <v>2258.158420190607</v>
+        <v>2404.240461598206</v>
       </c>
       <c r="AC2" t="n">
-        <v>2042.642949912863</v>
+        <v>2174.783126315954</v>
       </c>
       <c r="AD2" t="n">
-        <v>1650406.087861963</v>
+        <v>1757172.153657318</v>
       </c>
       <c r="AE2" t="n">
-        <v>2258158.420190607</v>
+        <v>2404240.461598206</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.05754244457547e-06</v>
+        <v>1.889222399604837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.64887152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2042642.949912863</v>
+        <v>2174783.126315954</v>
       </c>
     </row>
     <row r="3">
@@ -24565,28 +24565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1013.740551502424</v>
+        <v>1091.450665429643</v>
       </c>
       <c r="AB3" t="n">
-        <v>1387.044545642352</v>
+        <v>1493.370951845841</v>
       </c>
       <c r="AC3" t="n">
-        <v>1254.666960935492</v>
+        <v>1350.845724160968</v>
       </c>
       <c r="AD3" t="n">
-        <v>1013740.551502424</v>
+        <v>1091450.665429643</v>
       </c>
       <c r="AE3" t="n">
-        <v>1387044.545642352</v>
+        <v>1493370.951845841</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39885395475625e-06</v>
+        <v>2.498950504215647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.60980902777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1254666.960935492</v>
+        <v>1350845.724160968</v>
       </c>
     </row>
     <row r="4">
@@ -24671,28 +24671,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>850.27686023254</v>
+        <v>918.1879585728362</v>
       </c>
       <c r="AB4" t="n">
-        <v>1163.386311737802</v>
+        <v>1256.305272513204</v>
       </c>
       <c r="AC4" t="n">
-        <v>1052.354354968489</v>
+        <v>1136.405260540068</v>
       </c>
       <c r="AD4" t="n">
-        <v>850276.8602325401</v>
+        <v>918187.9585728362</v>
       </c>
       <c r="AE4" t="n">
-        <v>1163386.311737802</v>
+        <v>1256305.272513204</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.523927718657991e-06</v>
+        <v>2.722385655757874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.32942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1052354.354968489</v>
+        <v>1136405.260540068</v>
       </c>
     </row>
     <row r="5">
@@ -24777,28 +24777,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>768.8130481637622</v>
+        <v>836.8093978500788</v>
       </c>
       <c r="AB5" t="n">
-        <v>1051.923930135558</v>
+        <v>1144.95953556361</v>
       </c>
       <c r="AC5" t="n">
-        <v>951.5297866279285</v>
+        <v>1035.68620445022</v>
       </c>
       <c r="AD5" t="n">
-        <v>768813.0481637622</v>
+        <v>836809.3978500788</v>
       </c>
       <c r="AE5" t="n">
-        <v>1051923.930135558</v>
+        <v>1144959.53556361</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577157019626633e-06</v>
+        <v>2.817475917355492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.84548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>951529.7866279285</v>
+        <v>1035686.20445022</v>
       </c>
     </row>
     <row r="6">
@@ -24883,28 +24883,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>768.7065217427103</v>
+        <v>836.7028714290268</v>
       </c>
       <c r="AB6" t="n">
-        <v>1051.778175986661</v>
+        <v>1144.813781414713</v>
       </c>
       <c r="AC6" t="n">
-        <v>951.3979430504347</v>
+        <v>1035.554360872726</v>
       </c>
       <c r="AD6" t="n">
-        <v>768706.5217427103</v>
+        <v>836702.8714290268</v>
       </c>
       <c r="AE6" t="n">
-        <v>1051778.175986661</v>
+        <v>1144813.781414713</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.579370714562947e-06</v>
+        <v>2.821430521807567e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.82595486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>951397.9430504347</v>
+        <v>1035554.360872726</v>
       </c>
     </row>
   </sheetData>
